--- a/data/6139.xlsx
+++ b/data/6139.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1217"/>
+  <dimension ref="A1:I1218"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -42983,6 +42983,41 @@
         <v>831800</v>
       </c>
     </row>
+    <row r="1218">
+      <c r="A1218" t="n">
+        <v>1581379200</v>
+      </c>
+      <c r="B1218" t="inlineStr">
+        <is>
+          <t>2020-02-11</t>
+        </is>
+      </c>
+      <c r="C1218" t="inlineStr">
+        <is>
+          <t>6139</t>
+        </is>
+      </c>
+      <c r="D1218" t="inlineStr">
+        <is>
+          <t>TAKAFUL</t>
+        </is>
+      </c>
+      <c r="E1218" t="n">
+        <v>4.66</v>
+      </c>
+      <c r="F1218" t="n">
+        <v>4.74</v>
+      </c>
+      <c r="G1218" t="n">
+        <v>4.63</v>
+      </c>
+      <c r="H1218" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="I1218" t="n">
+        <v>949600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/6139.xlsx
+++ b/data/6139.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1218"/>
+  <dimension ref="A1:I1219"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43018,6 +43018,41 @@
         <v>949600</v>
       </c>
     </row>
+    <row r="1219">
+      <c r="A1219" t="n">
+        <v>1581465600</v>
+      </c>
+      <c r="B1219" t="inlineStr">
+        <is>
+          <t>2020-02-12</t>
+        </is>
+      </c>
+      <c r="C1219" t="inlineStr">
+        <is>
+          <t>6139</t>
+        </is>
+      </c>
+      <c r="D1219" t="inlineStr">
+        <is>
+          <t>TAKAFUL</t>
+        </is>
+      </c>
+      <c r="E1219" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="F1219" t="n">
+        <v>4.74</v>
+      </c>
+      <c r="G1219" t="n">
+        <v>4.58</v>
+      </c>
+      <c r="H1219" t="n">
+        <v>4.64</v>
+      </c>
+      <c r="I1219" t="n">
+        <v>820300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/6139.xlsx
+++ b/data/6139.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1219"/>
+  <dimension ref="A1:I1220"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43053,6 +43053,41 @@
         <v>820300</v>
       </c>
     </row>
+    <row r="1220">
+      <c r="A1220" t="n">
+        <v>1581552000</v>
+      </c>
+      <c r="B1220" t="inlineStr">
+        <is>
+          <t>2020-02-13</t>
+        </is>
+      </c>
+      <c r="C1220" t="inlineStr">
+        <is>
+          <t>6139</t>
+        </is>
+      </c>
+      <c r="D1220" t="inlineStr">
+        <is>
+          <t>TAKAFUL</t>
+        </is>
+      </c>
+      <c r="E1220" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="F1220" t="n">
+        <v>4.73</v>
+      </c>
+      <c r="G1220" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="H1220" t="n">
+        <v>4.71</v>
+      </c>
+      <c r="I1220" t="n">
+        <v>615400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/6139.xlsx
+++ b/data/6139.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1220"/>
+  <dimension ref="A1:I1221"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43088,6 +43088,41 @@
         <v>615400</v>
       </c>
     </row>
+    <row r="1221">
+      <c r="A1221" t="n">
+        <v>1581638400</v>
+      </c>
+      <c r="B1221" t="inlineStr">
+        <is>
+          <t>2020-02-14</t>
+        </is>
+      </c>
+      <c r="C1221" t="inlineStr">
+        <is>
+          <t>6139</t>
+        </is>
+      </c>
+      <c r="D1221" t="inlineStr">
+        <is>
+          <t>TAKAFUL</t>
+        </is>
+      </c>
+      <c r="E1221" t="n">
+        <v>4.71</v>
+      </c>
+      <c r="F1221" t="n">
+        <v>5.13</v>
+      </c>
+      <c r="G1221" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="H1221" t="n">
+        <v>5.03</v>
+      </c>
+      <c r="I1221" t="n">
+        <v>2946200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/6139.xlsx
+++ b/data/6139.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1221"/>
+  <dimension ref="A1:I1222"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43123,6 +43123,41 @@
         <v>2946200</v>
       </c>
     </row>
+    <row r="1222">
+      <c r="A1222" t="n">
+        <v>1581897600</v>
+      </c>
+      <c r="B1222" t="inlineStr">
+        <is>
+          <t>2020-02-17</t>
+        </is>
+      </c>
+      <c r="C1222" t="inlineStr">
+        <is>
+          <t>6139</t>
+        </is>
+      </c>
+      <c r="D1222" t="inlineStr">
+        <is>
+          <t>TAKAFUL</t>
+        </is>
+      </c>
+      <c r="E1222" t="n">
+        <v>5.05</v>
+      </c>
+      <c r="F1222" t="n">
+        <v>5.18</v>
+      </c>
+      <c r="G1222" t="n">
+        <v>4.98</v>
+      </c>
+      <c r="H1222" t="n">
+        <v>5.03</v>
+      </c>
+      <c r="I1222" t="n">
+        <v>1564200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/6139.xlsx
+++ b/data/6139.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1222"/>
+  <dimension ref="A1:I1223"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43158,6 +43158,41 @@
         <v>1564200</v>
       </c>
     </row>
+    <row r="1223">
+      <c r="A1223" t="n">
+        <v>1581984000</v>
+      </c>
+      <c r="B1223" t="inlineStr">
+        <is>
+          <t>2020-02-18</t>
+        </is>
+      </c>
+      <c r="C1223" t="inlineStr">
+        <is>
+          <t>6139</t>
+        </is>
+      </c>
+      <c r="D1223" t="inlineStr">
+        <is>
+          <t>TAKAFUL</t>
+        </is>
+      </c>
+      <c r="E1223" t="n">
+        <v>5.05</v>
+      </c>
+      <c r="F1223" t="n">
+        <v>5.05</v>
+      </c>
+      <c r="G1223" t="n">
+        <v>4.82</v>
+      </c>
+      <c r="H1223" t="n">
+        <v>4.84</v>
+      </c>
+      <c r="I1223" t="n">
+        <v>1282700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/6139.xlsx
+++ b/data/6139.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1223"/>
+  <dimension ref="A1:I1224"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43193,6 +43193,41 @@
         <v>1282700</v>
       </c>
     </row>
+    <row r="1224">
+      <c r="A1224" t="n">
+        <v>1582070400</v>
+      </c>
+      <c r="B1224" t="inlineStr">
+        <is>
+          <t>2020-02-19</t>
+        </is>
+      </c>
+      <c r="C1224" t="inlineStr">
+        <is>
+          <t>6139</t>
+        </is>
+      </c>
+      <c r="D1224" t="inlineStr">
+        <is>
+          <t>TAKAFUL</t>
+        </is>
+      </c>
+      <c r="E1224" t="n">
+        <v>4.86</v>
+      </c>
+      <c r="F1224" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="G1224" t="n">
+        <v>4.83</v>
+      </c>
+      <c r="H1224" t="n">
+        <v>4.84</v>
+      </c>
+      <c r="I1224" t="n">
+        <v>716700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/6139.xlsx
+++ b/data/6139.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1224"/>
+  <dimension ref="A1:I1225"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43228,6 +43228,41 @@
         <v>716700</v>
       </c>
     </row>
+    <row r="1225">
+      <c r="A1225" t="n">
+        <v>1582156800</v>
+      </c>
+      <c r="B1225" t="inlineStr">
+        <is>
+          <t>2020-02-20</t>
+        </is>
+      </c>
+      <c r="C1225" t="inlineStr">
+        <is>
+          <t>6139</t>
+        </is>
+      </c>
+      <c r="D1225" t="inlineStr">
+        <is>
+          <t>TAKAFUL</t>
+        </is>
+      </c>
+      <c r="E1225" t="n">
+        <v>4.88</v>
+      </c>
+      <c r="F1225" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="G1225" t="n">
+        <v>4.82</v>
+      </c>
+      <c r="H1225" t="n">
+        <v>4.85</v>
+      </c>
+      <c r="I1225" t="n">
+        <v>589500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/6139.xlsx
+++ b/data/6139.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1225"/>
+  <dimension ref="A1:I1226"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43263,6 +43263,41 @@
         <v>589500</v>
       </c>
     </row>
+    <row r="1226">
+      <c r="A1226" t="n">
+        <v>1582243200</v>
+      </c>
+      <c r="B1226" t="inlineStr">
+        <is>
+          <t>2020-02-21</t>
+        </is>
+      </c>
+      <c r="C1226" t="inlineStr">
+        <is>
+          <t>6139</t>
+        </is>
+      </c>
+      <c r="D1226" t="inlineStr">
+        <is>
+          <t>TAKAFUL</t>
+        </is>
+      </c>
+      <c r="E1226" t="n">
+        <v>4.88</v>
+      </c>
+      <c r="F1226" t="n">
+        <v>4.98</v>
+      </c>
+      <c r="G1226" t="n">
+        <v>4.85</v>
+      </c>
+      <c r="H1226" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="I1226" t="n">
+        <v>992800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/6139.xlsx
+++ b/data/6139.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1226"/>
+  <dimension ref="A1:I1227"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43298,6 +43298,41 @@
         <v>992800</v>
       </c>
     </row>
+    <row r="1227">
+      <c r="A1227" t="n">
+        <v>1582502400</v>
+      </c>
+      <c r="B1227" t="inlineStr">
+        <is>
+          <t>2020-02-24</t>
+        </is>
+      </c>
+      <c r="C1227" t="inlineStr">
+        <is>
+          <t>6139</t>
+        </is>
+      </c>
+      <c r="D1227" t="inlineStr">
+        <is>
+          <t>TAKAFUL</t>
+        </is>
+      </c>
+      <c r="E1227" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="F1227" t="n">
+        <v>4.85</v>
+      </c>
+      <c r="G1227" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="H1227" t="n">
+        <v>4.81</v>
+      </c>
+      <c r="I1227" t="n">
+        <v>1855300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/6139.xlsx
+++ b/data/6139.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1227"/>
+  <dimension ref="A1:I1228"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43333,6 +43333,41 @@
         <v>1855300</v>
       </c>
     </row>
+    <row r="1228">
+      <c r="A1228" t="n">
+        <v>1582588800</v>
+      </c>
+      <c r="B1228" t="inlineStr">
+        <is>
+          <t>2020-02-25</t>
+        </is>
+      </c>
+      <c r="C1228" t="inlineStr">
+        <is>
+          <t>6139</t>
+        </is>
+      </c>
+      <c r="D1228" t="inlineStr">
+        <is>
+          <t>TAKAFUL</t>
+        </is>
+      </c>
+      <c r="E1228" t="n">
+        <v>4.79</v>
+      </c>
+      <c r="F1228" t="n">
+        <v>4.82</v>
+      </c>
+      <c r="G1228" t="n">
+        <v>4.73</v>
+      </c>
+      <c r="H1228" t="n">
+        <v>4.77</v>
+      </c>
+      <c r="I1228" t="n">
+        <v>1458400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/6139.xlsx
+++ b/data/6139.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1228"/>
+  <dimension ref="A1:I1229"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43368,6 +43368,41 @@
         <v>1458400</v>
       </c>
     </row>
+    <row r="1229">
+      <c r="A1229" t="n">
+        <v>1582675200</v>
+      </c>
+      <c r="B1229" t="inlineStr">
+        <is>
+          <t>2020-02-26</t>
+        </is>
+      </c>
+      <c r="C1229" t="inlineStr">
+        <is>
+          <t>6139</t>
+        </is>
+      </c>
+      <c r="D1229" t="inlineStr">
+        <is>
+          <t>TAKAFUL</t>
+        </is>
+      </c>
+      <c r="E1229" t="n">
+        <v>4.67</v>
+      </c>
+      <c r="F1229" t="n">
+        <v>4.72</v>
+      </c>
+      <c r="G1229" t="n">
+        <v>4.56</v>
+      </c>
+      <c r="H1229" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="I1229" t="n">
+        <v>1813100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/6139.xlsx
+++ b/data/6139.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1229"/>
+  <dimension ref="A1:I1231"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43403,6 +43403,76 @@
         <v>1813100</v>
       </c>
     </row>
+    <row r="1230">
+      <c r="A1230" t="n">
+        <v>1582761600</v>
+      </c>
+      <c r="B1230" t="inlineStr">
+        <is>
+          <t>2020-02-27</t>
+        </is>
+      </c>
+      <c r="C1230" t="inlineStr">
+        <is>
+          <t>6139</t>
+        </is>
+      </c>
+      <c r="D1230" t="inlineStr">
+        <is>
+          <t>TAKAFUL</t>
+        </is>
+      </c>
+      <c r="E1230" t="n">
+        <v>4.71</v>
+      </c>
+      <c r="F1230" t="n">
+        <v>4.89</v>
+      </c>
+      <c r="G1230" t="n">
+        <v>4.68</v>
+      </c>
+      <c r="H1230" t="n">
+        <v>4.81</v>
+      </c>
+      <c r="I1230" t="n">
+        <v>865500</v>
+      </c>
+    </row>
+    <row r="1231">
+      <c r="A1231" t="n">
+        <v>1582848000</v>
+      </c>
+      <c r="B1231" t="inlineStr">
+        <is>
+          <t>2020-02-28</t>
+        </is>
+      </c>
+      <c r="C1231" t="inlineStr">
+        <is>
+          <t>6139</t>
+        </is>
+      </c>
+      <c r="D1231" t="inlineStr">
+        <is>
+          <t>TAKAFUL</t>
+        </is>
+      </c>
+      <c r="E1231" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="F1231" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="G1231" t="n">
+        <v>4.64</v>
+      </c>
+      <c r="H1231" t="n">
+        <v>4.74</v>
+      </c>
+      <c r="I1231" t="n">
+        <v>1505800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/6139.xlsx
+++ b/data/6139.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1231"/>
+  <dimension ref="A1:I1233"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43473,6 +43473,76 @@
         <v>1505800</v>
       </c>
     </row>
+    <row r="1232">
+      <c r="A1232" t="n">
+        <v>1583107200</v>
+      </c>
+      <c r="B1232" t="inlineStr">
+        <is>
+          <t>2020-03-02</t>
+        </is>
+      </c>
+      <c r="C1232" t="inlineStr">
+        <is>
+          <t>6139</t>
+        </is>
+      </c>
+      <c r="D1232" t="inlineStr">
+        <is>
+          <t>TAKAFUL</t>
+        </is>
+      </c>
+      <c r="E1232" t="n">
+        <v>4.68</v>
+      </c>
+      <c r="F1232" t="n">
+        <v>4.68</v>
+      </c>
+      <c r="G1232" t="n">
+        <v>4.55</v>
+      </c>
+      <c r="H1232" t="n">
+        <v>4.57</v>
+      </c>
+      <c r="I1232" t="n">
+        <v>1332000</v>
+      </c>
+    </row>
+    <row r="1233">
+      <c r="A1233" t="n">
+        <v>1583193600</v>
+      </c>
+      <c r="B1233" t="inlineStr">
+        <is>
+          <t>2020-03-03</t>
+        </is>
+      </c>
+      <c r="C1233" t="inlineStr">
+        <is>
+          <t>6139</t>
+        </is>
+      </c>
+      <c r="D1233" t="inlineStr">
+        <is>
+          <t>TAKAFUL</t>
+        </is>
+      </c>
+      <c r="E1233" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="F1233" t="n">
+        <v>4.64</v>
+      </c>
+      <c r="G1233" t="n">
+        <v>4.55</v>
+      </c>
+      <c r="H1233" t="n">
+        <v>4.57</v>
+      </c>
+      <c r="I1233" t="n">
+        <v>940800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/6139.xlsx
+++ b/data/6139.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1233"/>
+  <dimension ref="A1:I1234"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43543,6 +43543,41 @@
         <v>940800</v>
       </c>
     </row>
+    <row r="1234">
+      <c r="A1234" t="n">
+        <v>1583280000</v>
+      </c>
+      <c r="B1234" t="inlineStr">
+        <is>
+          <t>2020-03-04</t>
+        </is>
+      </c>
+      <c r="C1234" t="inlineStr">
+        <is>
+          <t>6139</t>
+        </is>
+      </c>
+      <c r="D1234" t="inlineStr">
+        <is>
+          <t>TAKAFUL</t>
+        </is>
+      </c>
+      <c r="E1234" t="n">
+        <v>4.52</v>
+      </c>
+      <c r="F1234" t="n">
+        <v>4.55</v>
+      </c>
+      <c r="G1234" t="n">
+        <v>4.45</v>
+      </c>
+      <c r="H1234" t="n">
+        <v>4.49</v>
+      </c>
+      <c r="I1234" t="n">
+        <v>688600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/6139.xlsx
+++ b/data/6139.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1234"/>
+  <dimension ref="A1:I1235"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43578,6 +43578,41 @@
         <v>688600</v>
       </c>
     </row>
+    <row r="1235">
+      <c r="A1235" t="n">
+        <v>1583366400</v>
+      </c>
+      <c r="B1235" t="inlineStr">
+        <is>
+          <t>2020-03-05</t>
+        </is>
+      </c>
+      <c r="C1235" t="inlineStr">
+        <is>
+          <t>6139</t>
+        </is>
+      </c>
+      <c r="D1235" t="inlineStr">
+        <is>
+          <t>TAKAFUL</t>
+        </is>
+      </c>
+      <c r="E1235" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="F1235" t="n">
+        <v>4.63</v>
+      </c>
+      <c r="G1235" t="n">
+        <v>4.44</v>
+      </c>
+      <c r="H1235" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="I1235" t="n">
+        <v>1327100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/6139.xlsx
+++ b/data/6139.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1235"/>
+  <dimension ref="A1:I1236"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43613,6 +43613,41 @@
         <v>1327100</v>
       </c>
     </row>
+    <row r="1236">
+      <c r="A1236" t="n">
+        <v>1583452800</v>
+      </c>
+      <c r="B1236" t="inlineStr">
+        <is>
+          <t>2020-03-06</t>
+        </is>
+      </c>
+      <c r="C1236" t="inlineStr">
+        <is>
+          <t>6139</t>
+        </is>
+      </c>
+      <c r="D1236" t="inlineStr">
+        <is>
+          <t>TAKAFUL</t>
+        </is>
+      </c>
+      <c r="E1236" t="n">
+        <v>4.58</v>
+      </c>
+      <c r="F1236" t="n">
+        <v>4.58</v>
+      </c>
+      <c r="G1236" t="n">
+        <v>4.46</v>
+      </c>
+      <c r="H1236" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="I1236" t="n">
+        <v>804500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/6139.xlsx
+++ b/data/6139.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1236"/>
+  <dimension ref="A1:I1237"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43648,6 +43648,41 @@
         <v>804500</v>
       </c>
     </row>
+    <row r="1237">
+      <c r="A1237" t="n">
+        <v>1583712000</v>
+      </c>
+      <c r="B1237" t="inlineStr">
+        <is>
+          <t>2020-03-09</t>
+        </is>
+      </c>
+      <c r="C1237" t="inlineStr">
+        <is>
+          <t>6139</t>
+        </is>
+      </c>
+      <c r="D1237" t="inlineStr">
+        <is>
+          <t>TAKAFUL</t>
+        </is>
+      </c>
+      <c r="E1237" t="n">
+        <v>4.45</v>
+      </c>
+      <c r="F1237" t="n">
+        <v>4.45</v>
+      </c>
+      <c r="G1237" t="n">
+        <v>4.15</v>
+      </c>
+      <c r="H1237" t="n">
+        <v>4.39</v>
+      </c>
+      <c r="I1237" t="n">
+        <v>1242800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/6139.xlsx
+++ b/data/6139.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1237"/>
+  <dimension ref="A1:I1239"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43683,6 +43683,76 @@
         <v>1242800</v>
       </c>
     </row>
+    <row r="1238">
+      <c r="A1238" t="n">
+        <v>1583798400</v>
+      </c>
+      <c r="B1238" t="inlineStr">
+        <is>
+          <t>2020-03-10</t>
+        </is>
+      </c>
+      <c r="C1238" t="inlineStr">
+        <is>
+          <t>6139</t>
+        </is>
+      </c>
+      <c r="D1238" t="inlineStr">
+        <is>
+          <t>TAKAFUL</t>
+        </is>
+      </c>
+      <c r="E1238" t="n">
+        <v>4.22</v>
+      </c>
+      <c r="F1238" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="G1238" t="n">
+        <v>4.22</v>
+      </c>
+      <c r="H1238" t="n">
+        <v>4.25</v>
+      </c>
+      <c r="I1238" t="n">
+        <v>2142100</v>
+      </c>
+    </row>
+    <row r="1239">
+      <c r="A1239" t="n">
+        <v>1583884800</v>
+      </c>
+      <c r="B1239" t="inlineStr">
+        <is>
+          <t>2020-03-11</t>
+        </is>
+      </c>
+      <c r="C1239" t="inlineStr">
+        <is>
+          <t>6139</t>
+        </is>
+      </c>
+      <c r="D1239" t="inlineStr">
+        <is>
+          <t>TAKAFUL</t>
+        </is>
+      </c>
+      <c r="E1239" t="n">
+        <v>4.37</v>
+      </c>
+      <c r="F1239" t="n">
+        <v>4.37</v>
+      </c>
+      <c r="G1239" t="n">
+        <v>4.25</v>
+      </c>
+      <c r="H1239" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="I1239" t="n">
+        <v>2866500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/6139.xlsx
+++ b/data/6139.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1239"/>
+  <dimension ref="A1:I1240"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43753,6 +43753,41 @@
         <v>2866500</v>
       </c>
     </row>
+    <row r="1240">
+      <c r="A1240" t="n">
+        <v>1583971200</v>
+      </c>
+      <c r="B1240" t="inlineStr">
+        <is>
+          <t>2020-03-12</t>
+        </is>
+      </c>
+      <c r="C1240" t="inlineStr">
+        <is>
+          <t>6139</t>
+        </is>
+      </c>
+      <c r="D1240" t="inlineStr">
+        <is>
+          <t>TAKAFUL</t>
+        </is>
+      </c>
+      <c r="E1240" t="n">
+        <v>4.25</v>
+      </c>
+      <c r="F1240" t="n">
+        <v>4.27</v>
+      </c>
+      <c r="G1240" t="n">
+        <v>4.18</v>
+      </c>
+      <c r="H1240" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="I1240" t="n">
+        <v>983300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/6139.xlsx
+++ b/data/6139.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1240"/>
+  <dimension ref="A1:I1241"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43788,6 +43788,41 @@
         <v>983300</v>
       </c>
     </row>
+    <row r="1241">
+      <c r="A1241" t="n">
+        <v>1584057600</v>
+      </c>
+      <c r="B1241" t="inlineStr">
+        <is>
+          <t>2020-03-13</t>
+        </is>
+      </c>
+      <c r="C1241" t="inlineStr">
+        <is>
+          <t>6139</t>
+        </is>
+      </c>
+      <c r="D1241" t="inlineStr">
+        <is>
+          <t>TAKAFUL</t>
+        </is>
+      </c>
+      <c r="E1241" t="n">
+        <v>4.09</v>
+      </c>
+      <c r="F1241" t="n">
+        <v>4.09</v>
+      </c>
+      <c r="G1241" t="n">
+        <v>3.88</v>
+      </c>
+      <c r="H1241" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="I1241" t="n">
+        <v>3255500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/6139.xlsx
+++ b/data/6139.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2611"/>
+  <dimension ref="A1:I2612"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -91773,6 +91773,41 @@
         <v>3255500</v>
       </c>
     </row>
+    <row r="2612">
+      <c r="A2612" t="n">
+        <v>1584316800</v>
+      </c>
+      <c r="B2612" t="inlineStr">
+        <is>
+          <t>2020-03-16</t>
+        </is>
+      </c>
+      <c r="C2612" t="inlineStr">
+        <is>
+          <t>6139</t>
+        </is>
+      </c>
+      <c r="D2612" t="inlineStr">
+        <is>
+          <t>TAKAFUL</t>
+        </is>
+      </c>
+      <c r="E2612" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="F2612" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="G2612" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="H2612" t="n">
+        <v>3.19</v>
+      </c>
+      <c r="I2612" t="n">
+        <v>2513400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/6139.xlsx
+++ b/data/6139.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2612"/>
+  <dimension ref="A1:I2613"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -91808,6 +91808,41 @@
         <v>2513400</v>
       </c>
     </row>
+    <row r="2613">
+      <c r="A2613" t="n">
+        <v>1584403200</v>
+      </c>
+      <c r="B2613" t="inlineStr">
+        <is>
+          <t>2020-03-17</t>
+        </is>
+      </c>
+      <c r="C2613" t="inlineStr">
+        <is>
+          <t>6139</t>
+        </is>
+      </c>
+      <c r="D2613" t="inlineStr">
+        <is>
+          <t>TAKAFUL</t>
+        </is>
+      </c>
+      <c r="E2613" t="n">
+        <v>3</v>
+      </c>
+      <c r="F2613" t="n">
+        <v>3.44</v>
+      </c>
+      <c r="G2613" t="n">
+        <v>2.93</v>
+      </c>
+      <c r="H2613" t="n">
+        <v>3.44</v>
+      </c>
+      <c r="I2613" t="n">
+        <v>2598300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/6139.xlsx
+++ b/data/6139.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2613"/>
+  <dimension ref="A1:I2614"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -91843,6 +91843,41 @@
         <v>2598300</v>
       </c>
     </row>
+    <row r="2614">
+      <c r="A2614" t="n">
+        <v>1584489600</v>
+      </c>
+      <c r="B2614" t="inlineStr">
+        <is>
+          <t>2020-03-18</t>
+        </is>
+      </c>
+      <c r="C2614" t="inlineStr">
+        <is>
+          <t>6139</t>
+        </is>
+      </c>
+      <c r="D2614" t="inlineStr">
+        <is>
+          <t>TAKAFUL</t>
+        </is>
+      </c>
+      <c r="E2614" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="F2614" t="n">
+        <v>3.47</v>
+      </c>
+      <c r="G2614" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="H2614" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="I2614" t="n">
+        <v>2430800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/6139.xlsx
+++ b/data/6139.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2614"/>
+  <dimension ref="A1:I2615"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -91878,6 +91878,41 @@
         <v>2430800</v>
       </c>
     </row>
+    <row r="2615">
+      <c r="A2615" t="n">
+        <v>1584576000</v>
+      </c>
+      <c r="B2615" t="inlineStr">
+        <is>
+          <t>2020-03-19</t>
+        </is>
+      </c>
+      <c r="C2615" t="inlineStr">
+        <is>
+          <t>6139</t>
+        </is>
+      </c>
+      <c r="D2615" t="inlineStr">
+        <is>
+          <t>TAKAFUL</t>
+        </is>
+      </c>
+      <c r="E2615" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="F2615" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="G2615" t="n">
+        <v>3.11</v>
+      </c>
+      <c r="H2615" t="n">
+        <v>3.17</v>
+      </c>
+      <c r="I2615" t="n">
+        <v>1921100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/6139.xlsx
+++ b/data/6139.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2615"/>
+  <dimension ref="A1:I2616"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -91913,6 +91913,41 @@
         <v>1921100</v>
       </c>
     </row>
+    <row r="2616">
+      <c r="A2616" t="n">
+        <v>1584662400</v>
+      </c>
+      <c r="B2616" t="inlineStr">
+        <is>
+          <t>2020-03-20</t>
+        </is>
+      </c>
+      <c r="C2616" t="inlineStr">
+        <is>
+          <t>6139</t>
+        </is>
+      </c>
+      <c r="D2616" t="inlineStr">
+        <is>
+          <t>TAKAFUL</t>
+        </is>
+      </c>
+      <c r="E2616" t="n">
+        <v>3.14</v>
+      </c>
+      <c r="F2616" t="n">
+        <v>3.41</v>
+      </c>
+      <c r="G2616" t="n">
+        <v>3.14</v>
+      </c>
+      <c r="H2616" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="I2616" t="n">
+        <v>4995400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/6139.xlsx
+++ b/data/6139.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2616"/>
+  <dimension ref="A1:I2617"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -91948,6 +91948,41 @@
         <v>4995400</v>
       </c>
     </row>
+    <row r="2617">
+      <c r="A2617" t="n">
+        <v>1584921600</v>
+      </c>
+      <c r="B2617" t="inlineStr">
+        <is>
+          <t>2020-03-23</t>
+        </is>
+      </c>
+      <c r="C2617" t="inlineStr">
+        <is>
+          <t>6139</t>
+        </is>
+      </c>
+      <c r="D2617" t="inlineStr">
+        <is>
+          <t>TAKAFUL</t>
+        </is>
+      </c>
+      <c r="E2617" t="n">
+        <v>3.14</v>
+      </c>
+      <c r="F2617" t="n">
+        <v>3.19</v>
+      </c>
+      <c r="G2617" t="n">
+        <v>3.08</v>
+      </c>
+      <c r="H2617" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="I2617" t="n">
+        <v>1391500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/6139.xlsx
+++ b/data/6139.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2617"/>
+  <dimension ref="A1:I2618"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -91983,6 +91983,41 @@
         <v>1391500</v>
       </c>
     </row>
+    <row r="2618">
+      <c r="A2618" t="n">
+        <v>1585008000</v>
+      </c>
+      <c r="B2618" t="inlineStr">
+        <is>
+          <t>2020-03-24</t>
+        </is>
+      </c>
+      <c r="C2618" t="inlineStr">
+        <is>
+          <t>6139</t>
+        </is>
+      </c>
+      <c r="D2618" t="inlineStr">
+        <is>
+          <t>TAKAFUL</t>
+        </is>
+      </c>
+      <c r="E2618" t="n">
+        <v>3.19</v>
+      </c>
+      <c r="F2618" t="n">
+        <v>3.33</v>
+      </c>
+      <c r="G2618" t="n">
+        <v>3.19</v>
+      </c>
+      <c r="H2618" t="n">
+        <v>3.31</v>
+      </c>
+      <c r="I2618" t="n">
+        <v>652400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/6139.xlsx
+++ b/data/6139.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2618"/>
+  <dimension ref="A1:I2619"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -92018,6 +92018,41 @@
         <v>652400</v>
       </c>
     </row>
+    <row r="2619">
+      <c r="A2619" t="n">
+        <v>1585094400</v>
+      </c>
+      <c r="B2619" t="inlineStr">
+        <is>
+          <t>2020-03-25</t>
+        </is>
+      </c>
+      <c r="C2619" t="inlineStr">
+        <is>
+          <t>6139</t>
+        </is>
+      </c>
+      <c r="D2619" t="inlineStr">
+        <is>
+          <t>TAKAFUL</t>
+        </is>
+      </c>
+      <c r="E2619" t="n">
+        <v>3.58</v>
+      </c>
+      <c r="F2619" t="n">
+        <v>3.61</v>
+      </c>
+      <c r="G2619" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="H2619" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="I2619" t="n">
+        <v>1501900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/6139.xlsx
+++ b/data/6139.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2619"/>
+  <dimension ref="A1:I2620"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -92053,6 +92053,41 @@
         <v>1501900</v>
       </c>
     </row>
+    <row r="2620">
+      <c r="A2620" t="n">
+        <v>1585180800</v>
+      </c>
+      <c r="B2620" t="inlineStr">
+        <is>
+          <t>2020-03-26</t>
+        </is>
+      </c>
+      <c r="C2620" t="inlineStr">
+        <is>
+          <t>6139</t>
+        </is>
+      </c>
+      <c r="D2620" t="inlineStr">
+        <is>
+          <t>TAKAFUL</t>
+        </is>
+      </c>
+      <c r="E2620" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="F2620" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="G2620" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="H2620" t="n">
+        <v>3.53</v>
+      </c>
+      <c r="I2620" t="n">
+        <v>656000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/6139.xlsx
+++ b/data/6139.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2620"/>
+  <dimension ref="A1:I2621"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -92088,6 +92088,41 @@
         <v>656000</v>
       </c>
     </row>
+    <row r="2621">
+      <c r="A2621" t="n">
+        <v>1585267200</v>
+      </c>
+      <c r="B2621" t="inlineStr">
+        <is>
+          <t>2020-03-27</t>
+        </is>
+      </c>
+      <c r="C2621" t="inlineStr">
+        <is>
+          <t>6139</t>
+        </is>
+      </c>
+      <c r="D2621" t="inlineStr">
+        <is>
+          <t>TAKAFUL</t>
+        </is>
+      </c>
+      <c r="E2621" t="n">
+        <v>3.56</v>
+      </c>
+      <c r="F2621" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="G2621" t="n">
+        <v>3.47</v>
+      </c>
+      <c r="H2621" t="n">
+        <v>3.49</v>
+      </c>
+      <c r="I2621" t="n">
+        <v>3528200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/6139.xlsx
+++ b/data/6139.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2621"/>
+  <dimension ref="A1:I2622"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -92123,6 +92123,41 @@
         <v>3528200</v>
       </c>
     </row>
+    <row r="2622">
+      <c r="A2622" t="n">
+        <v>1585526400</v>
+      </c>
+      <c r="B2622" t="inlineStr">
+        <is>
+          <t>2020-03-30</t>
+        </is>
+      </c>
+      <c r="C2622" t="inlineStr">
+        <is>
+          <t>6139</t>
+        </is>
+      </c>
+      <c r="D2622" t="inlineStr">
+        <is>
+          <t>TAKAFUL</t>
+        </is>
+      </c>
+      <c r="E2622" t="n">
+        <v>3.46</v>
+      </c>
+      <c r="F2622" t="n">
+        <v>3.46</v>
+      </c>
+      <c r="G2622" t="n">
+        <v>3.22</v>
+      </c>
+      <c r="H2622" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="I2622" t="n">
+        <v>2313700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/6139.xlsx
+++ b/data/6139.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2622"/>
+  <dimension ref="A1:I2623"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -92158,6 +92158,41 @@
         <v>2313700</v>
       </c>
     </row>
+    <row r="2623">
+      <c r="A2623" t="n">
+        <v>1585612800</v>
+      </c>
+      <c r="B2623" t="inlineStr">
+        <is>
+          <t>2020-03-31</t>
+        </is>
+      </c>
+      <c r="C2623" t="inlineStr">
+        <is>
+          <t>6139</t>
+        </is>
+      </c>
+      <c r="D2623" t="inlineStr">
+        <is>
+          <t>TAKAFUL</t>
+        </is>
+      </c>
+      <c r="E2623" t="n">
+        <v>3.32</v>
+      </c>
+      <c r="F2623" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="G2623" t="n">
+        <v>3.23</v>
+      </c>
+      <c r="H2623" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="I2623" t="n">
+        <v>2838500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/6139.xlsx
+++ b/data/6139.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2623"/>
+  <dimension ref="A1:I2624"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -92193,6 +92193,41 @@
         <v>2838500</v>
       </c>
     </row>
+    <row r="2624">
+      <c r="A2624" t="n">
+        <v>1585699200</v>
+      </c>
+      <c r="B2624" t="inlineStr">
+        <is>
+          <t>2020-04-01</t>
+        </is>
+      </c>
+      <c r="C2624" t="inlineStr">
+        <is>
+          <t>6139</t>
+        </is>
+      </c>
+      <c r="D2624" t="inlineStr">
+        <is>
+          <t>TAKAFUL</t>
+        </is>
+      </c>
+      <c r="E2624" t="n">
+        <v>3.24</v>
+      </c>
+      <c r="F2624" t="n">
+        <v>3.27</v>
+      </c>
+      <c r="G2624" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="H2624" t="n">
+        <v>3.22</v>
+      </c>
+      <c r="I2624" t="n">
+        <v>1953200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/6139.xlsx
+++ b/data/6139.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2624"/>
+  <dimension ref="A1:I2625"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -92228,6 +92228,41 @@
         <v>1953200</v>
       </c>
     </row>
+    <row r="2625">
+      <c r="A2625" t="n">
+        <v>1585785600</v>
+      </c>
+      <c r="B2625" t="inlineStr">
+        <is>
+          <t>2020-04-02</t>
+        </is>
+      </c>
+      <c r="C2625" t="inlineStr">
+        <is>
+          <t>6139</t>
+        </is>
+      </c>
+      <c r="D2625" t="inlineStr">
+        <is>
+          <t>TAKAFUL</t>
+        </is>
+      </c>
+      <c r="E2625" t="n">
+        <v>3.23</v>
+      </c>
+      <c r="F2625" t="n">
+        <v>3.27</v>
+      </c>
+      <c r="G2625" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="H2625" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="I2625" t="n">
+        <v>1415800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/6139.xlsx
+++ b/data/6139.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2625"/>
+  <dimension ref="A1:I2626"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -92263,6 +92263,41 @@
         <v>1415800</v>
       </c>
     </row>
+    <row r="2626">
+      <c r="A2626" t="n">
+        <v>1585872000</v>
+      </c>
+      <c r="B2626" t="inlineStr">
+        <is>
+          <t>2020-04-03</t>
+        </is>
+      </c>
+      <c r="C2626" t="inlineStr">
+        <is>
+          <t>6139</t>
+        </is>
+      </c>
+      <c r="D2626" t="inlineStr">
+        <is>
+          <t>TAKAFUL</t>
+        </is>
+      </c>
+      <c r="E2626" t="n">
+        <v>3.27</v>
+      </c>
+      <c r="F2626" t="n">
+        <v>3.38</v>
+      </c>
+      <c r="G2626" t="n">
+        <v>3.27</v>
+      </c>
+      <c r="H2626" t="n">
+        <v>3.29</v>
+      </c>
+      <c r="I2626" t="n">
+        <v>1631700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
